--- a/finance_science/result.xlsx
+++ b/finance_science/result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\math_model_toolkits\finance_science\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF5253-0A71-4782-8671-1AA84849F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15972" yWindow="2640" windowWidth="13920" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,89 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+  <si>
+    <t>双均线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖太少了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为加仓加到了运气比较好的股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +130,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +417,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.2127999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.5657000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <v>7.1194999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-2.7099000000000002E-2</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.100192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.3321E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.4229999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.6797999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.2297999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.1499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8.7374999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8.7374999999999994E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6">
+        <v>0.100951</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7.7936000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-3.4317E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7.2889999999999996E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8.0227999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7.4610999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/finance_science/result.xlsx
+++ b/finance_science/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\math_model_toolkits\finance_science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RX-105\math_model_toolkits\finance_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF5253-0A71-4782-8671-1AA84849F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C364CD3-5806-46E5-B781-2A4287499987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15972" yWindow="2640" windowWidth="13920" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1125" windowWidth="21585" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>双均线</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>因为加仓加到了运气比较好的股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top选股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤</t>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计(年化)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top6选股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金0.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡玛比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,18 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +525,7 @@
         <v>3.2127999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10</v>
       </c>
@@ -492,7 +545,7 @@
         <v>1.5657000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>15</v>
       </c>
@@ -514,7 +567,7 @@
         <v>7.1194999999999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>5</v>
       </c>
@@ -535,7 +588,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10</v>
       </c>
@@ -555,7 +608,7 @@
         <v>-0.100192</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>15</v>
       </c>
@@ -575,7 +628,7 @@
         <v>5.3321E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>15</v>
       </c>
@@ -595,7 +648,7 @@
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>20</v>
       </c>
@@ -615,7 +668,7 @@
         <v>6.6797999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>15</v>
       </c>
@@ -635,7 +688,7 @@
         <v>2.2297999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>15</v>
       </c>
@@ -655,7 +708,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -678,7 +731,7 @@
         <v>8.7374999999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -704,7 +757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -726,11 +779,11 @@
         <v>0.100951</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>10</v>
       </c>
@@ -750,7 +803,7 @@
         <v>7.7936000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>5</v>
       </c>
@@ -770,7 +823,7 @@
         <v>-3.4317E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -790,7 +843,7 @@
         <v>7.2889999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>15</v>
       </c>
@@ -810,7 +863,7 @@
         <v>8.0227999999999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>15</v>
       </c>
@@ -828,6 +881,146 @@
       </c>
       <c r="I24" s="1">
         <v>7.4610999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0.03</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>0.31557400000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0.02</v>
+      </c>
+      <c r="F30">
+        <v>0.03</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.312749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.45314700000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-5.2284999999999998E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.181897</v>
+      </c>
+      <c r="D38">
+        <v>-0.20639663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.31557400000000002</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.15749099999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.991944881620899</v>
+      </c>
+      <c r="E40">
+        <v>0.415876912921056</v>
+      </c>
+      <c r="F40">
+        <v>2.0808538752246801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/finance_science/result.xlsx
+++ b/finance_science/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RX-105\math_model_toolkits\finance_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C364CD3-5806-46E5-B781-2A4287499987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F13FB-70A7-47D2-BC4B-25F336E4406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1125" windowWidth="21585" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卖太少了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为加仓加到了运气比较好的股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>top选股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +115,14 @@
   </si>
   <si>
     <t>夏普比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双均线15,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +160,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -189,6 +201,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,559 +485,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-5.2284999999999998E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.181897</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-0.20639663</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="1"/>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>0.03</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1">
+      <c r="T2" s="1">
         <v>3.2127999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.1194999999999994E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.10221776</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.52655687130112006</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8.7354717243114804E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.72016268279319495</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="N3">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>0.03</v>
       </c>
-      <c r="F3" t="s">
+      <c r="Q3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1">
+      <c r="T3" s="1">
         <v>1.5657000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.31557400000000002</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.15749099999999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.991944881620899</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.415876912921056</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.0808538752246801</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="M4" s="3">
+        <v>15</v>
+      </c>
+      <c r="N4" s="3">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
         <v>0.03</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="6">
         <v>7.1194999999999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.05</v>
       </c>
-      <c r="F5" t="s">
+      <c r="Q5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1">
+      <c r="T5" s="1">
         <v>-2.7099000000000002E-2</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="N6">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>0.05</v>
       </c>
-      <c r="F6" t="s">
+      <c r="Q6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="T6" s="1">
         <v>-0.100192</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.05</v>
       </c>
-      <c r="F7" t="s">
+      <c r="Q7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="T7" s="1">
         <v>5.3321E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <v>0.01</v>
       </c>
-      <c r="F9" t="s">
+      <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="T9" s="1">
         <v>5.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="N10">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>0.03</v>
       </c>
-      <c r="F10" t="s">
+      <c r="Q10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="1">
+      <c r="T10" s="1">
         <v>6.6797999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>0.1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="Q11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="T11" s="1">
         <v>2.2297999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <v>0.08</v>
       </c>
-      <c r="F12" t="s">
+      <c r="Q12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="1">
+      <c r="T12" s="1">
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="L16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>60</v>
+      </c>
+      <c r="O16">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="P16" s="1">
         <v>0.03</v>
       </c>
-      <c r="F16" t="s">
+      <c r="Q16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="1">
+      <c r="T16" s="1">
         <v>8.7374999999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>60</v>
-      </c>
-      <c r="D17">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>60</v>
+      </c>
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="P17" s="1">
         <v>0.03</v>
       </c>
-      <c r="F17" t="s">
+      <c r="Q17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="1">
+      <c r="T17" s="1">
         <v>8.7374999999999994E-2</v>
       </c>
-      <c r="K17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="6">
+      <c r="I18" s="6"/>
+      <c r="M18" s="3">
+        <v>15</v>
+      </c>
+      <c r="N18" s="3">
+        <v>60</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6">
         <v>0.100951</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="P19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="C20">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="N20">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>0.03</v>
       </c>
-      <c r="F20" t="s">
+      <c r="Q20" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="1">
+      <c r="T20" s="1">
         <v>7.7936000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="M21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>60</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="N21">
+        <v>60</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <v>0.03</v>
       </c>
-      <c r="F21" t="s">
+      <c r="Q21" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="1">
+      <c r="T21" s="1">
         <v>-3.4317E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>60</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="N22">
+        <v>60</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
         <v>0.03</v>
       </c>
-      <c r="F22" t="s">
+      <c r="Q22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="1">
+      <c r="T22" s="1">
         <v>7.2889999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>60</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
         <v>0.05</v>
       </c>
-      <c r="F23" t="s">
+      <c r="Q23" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="T23" s="1">
         <v>8.0227999999999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>60</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>60</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
         <v>0.1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="Q24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="1">
+      <c r="T24" s="1">
         <v>7.4610999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="Q28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
+      <c r="S28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>60</v>
-      </c>
-      <c r="D29">
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>60</v>
+      </c>
+      <c r="O29">
         <v>6</v>
       </c>
-      <c r="E29">
+      <c r="P29">
         <v>0.01</v>
       </c>
-      <c r="F29">
+      <c r="Q29">
         <v>0.03</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1">
         <v>0.31557400000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>60</v>
-      </c>
-      <c r="D30">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30">
+        <v>60</v>
+      </c>
+      <c r="O30">
         <v>6</v>
       </c>
-      <c r="E30">
+      <c r="P30">
         <v>0.02</v>
       </c>
-      <c r="F30">
+      <c r="Q30">
         <v>0.03</v>
       </c>
-      <c r="H30" s="1">
+      <c r="S30" s="1">
         <v>0.312749</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>60</v>
-      </c>
-      <c r="D31">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+      <c r="M31">
+        <v>15</v>
+      </c>
+      <c r="N31">
+        <v>60</v>
+      </c>
+      <c r="O31">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="P31">
         <v>0.01</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
         <v>0.45314700000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-5.2284999999999998E-2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.181897</v>
-      </c>
-      <c r="D38">
-        <v>-0.20639663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.31557400000000002</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.15749099999999999</v>
-      </c>
-      <c r="D40">
-        <v>0.991944881620899</v>
-      </c>
-      <c r="E40">
-        <v>0.415876912921056</v>
-      </c>
-      <c r="F40">
-        <v>2.0808538752246801</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
